--- a/owlcms/src/main/resources/templates/competitionResults/FHQ/SnCJTot-LEGAL_fr_CA.xlsx
+++ b/owlcms/src/main/resources/templates/competitionResults/FHQ/SnCJTot-LEGAL_fr_CA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionResults\FHQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2914C366-67A5-4FEA-A75F-EECEFD5BA842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F377A9E4-2B03-4EEE-AD2C-ED2BE8656BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="23025" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -1264,67 +1264,67 @@
     <xf numFmtId="1" fontId="22" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1808,7 +1808,7 @@
   <dimension ref="A1:X108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection activeCell="U6" sqref="U6:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1941,63 +1941,63 @@
     </row>
     <row r="5" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="94" t="s">
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="90" t="s">
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="91"/>
-      <c r="U6" s="86" t="s">
+      <c r="T6" s="95"/>
+      <c r="U6" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="V6" s="87"/>
+      <c r="V6" s="99"/>
       <c r="X6"/>
     </row>
     <row r="7" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="97"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
       <c r="I7" s="47">
         <v>1</v>
       </c>
@@ -2034,8 +2034,8 @@
       <c r="T7" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="U7" s="88"/>
-      <c r="V7" s="89"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="101"/>
     </row>
     <row r="8" spans="1:24" s="11" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38"/>
@@ -2138,10 +2138,10 @@
       <c r="T10" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="U10" s="84" t="s">
+      <c r="U10" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="V10" s="85"/>
+      <c r="V10" s="93"/>
     </row>
     <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11"/>
@@ -2568,11 +2568,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="U10:V10"/>
     <mergeCell ref="U6:V7"/>
     <mergeCell ref="S6:T6"/>
@@ -2581,6 +2576,11 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="N6:R6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
     <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
